--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Parameter subject.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Parameter subject.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t/>
   </si>
@@ -38,16 +38,13 @@
     <t>Parameter subject_2</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Parameter subject_3</t>
-  </si>
-  <si>
     <t>Batch of products</t>
   </si>
   <si>
     <t>Parameter subject_4</t>
+  </si>
+  <si>
+    <t>Belly</t>
   </si>
   <si>
     <t>Carcass</t>
@@ -72,6 +69,15 @@
   </si>
   <si>
     <t>Parameter subject_8</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Parameter subject_3</t>
   </si>
 </sst>
 </file>
@@ -156,83 +162,84 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10"/>
       <c r="B10"/>
     </row>
     <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-    </row>
-    <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
-    </row>
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+    </row>
+    <row r="12"/>
     <row r="13">
       <c r="A13"/>
       <c r="B13"/>
@@ -4184,6 +4191,10 @@
     <row r="1000">
       <c r="A1000"/>
       <c r="B1000"/>
+    </row>
+    <row r="1001">
+      <c r="A1001"/>
+      <c r="B1001"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
